--- a/www/plys/Tern/QAPe.xlsx
+++ b/www/plys/Tern/QAPe.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\RockR!\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7235009-CEF4-48BC-B975-46BE1C8921C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8100" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Q</t>
   </si>
@@ -108,6 +109,24 @@
   <si>
     <t>Quartz alkali_x000D_
 fsp trachyte</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
+    <t>Q (%)</t>
+  </si>
+  <si>
+    <t>A (%)</t>
+  </si>
+  <si>
+    <t>P (%)</t>
   </si>
 </sst>
 </file>
@@ -464,16 +483,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9529596-61E0-4F4F-A620-DAFC4599F044}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90</v>
       </c>
@@ -504,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -518,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>90</v>
       </c>
@@ -532,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -546,7 +565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>90</v>
       </c>
@@ -560,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>90</v>
       </c>
@@ -574,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -588,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -605,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -622,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60</v>
       </c>
@@ -639,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -656,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -673,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -690,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -707,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -724,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -741,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20</v>
       </c>
@@ -758,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -775,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -792,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -809,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>60</v>
       </c>
@@ -826,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>60</v>
       </c>
@@ -843,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -860,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -877,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -894,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -911,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -928,7 +947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -945,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20</v>
       </c>
@@ -962,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -979,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -996,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1013,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
@@ -1030,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -1047,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1064,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1081,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -1098,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20</v>
       </c>
@@ -1115,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1132,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -1149,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>60</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>60</v>
       </c>
@@ -1183,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20</v>
       </c>
@@ -1200,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1217,7 +1236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1251,7 +1270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1269,7 +1288,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,12 +1303,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>75</v>
       </c>
@@ -1338,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>93.3333333333333</v>
       </c>
@@ -1361,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1628,15 +1647,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E532FD-530C-44D1-B4F3-37AF0671EC71}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1647,10 +1669,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1661,6 +1692,15 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
     </row>
